--- a/DSA2 Final Grading Guide.xlsx
+++ b/DSA2 Final Grading Guide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Asteriod_Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{586EA460-9B1C-407A-BCEA-3E603E5D9554}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8275E4E-E460-48AD-91DA-7FBE44935F53}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1172,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
